--- a/analysis-service/accuracytest.xlsx
+++ b/analysis-service/accuracytest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,26 +449,6 @@
           <t>accuracy_spotted</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>hs_accuracy</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>time_to_damage</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>crosshair_placement</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>counter_strafing</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,27 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28.95</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>10.61</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.524</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0.87</t>
+          <t>0.39</t>
         </is>
       </c>
     </row>
@@ -526,27 +486,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>32.75</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>17.91</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.500</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>11.18</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0.87</t>
+          <t>0.25</t>
         </is>
       </c>
     </row>
@@ -566,27 +506,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.47</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>17.65</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.578</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.81</t>
+          <t>0.17</t>
         </is>
       </c>
     </row>
@@ -606,27 +526,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>26.60</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>25.58</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.583</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.87</t>
+          <t>0.28</t>
         </is>
       </c>
     </row>
@@ -646,27 +546,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24.31</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>15.62</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.539</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0.87</t>
+          <t>0.15</t>
         </is>
       </c>
     </row>
@@ -686,27 +566,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>31.55</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>23.33</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.443</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.90</t>
+          <t>0.24</t>
         </is>
       </c>
     </row>
@@ -726,27 +586,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>18.29</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>23.08</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.586</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0.88</t>
+          <t>0.17</t>
         </is>
       </c>
     </row>
@@ -766,27 +606,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10.10</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>22.50</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.745</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>11.62</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0.81</t>
+          <t>0.14</t>
         </is>
       </c>
     </row>
@@ -806,27 +626,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>27.52</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>20.69</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.472</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>0.26</t>
         </is>
       </c>
     </row>
@@ -846,27 +646,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>21.85</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>14.55</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.527</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0.84</t>
+          <t>0.24</t>
         </is>
       </c>
     </row>
